--- a/data/Additional data/Meteorological Data_2021320_0416.xlsx
+++ b/data/Additional data/Meteorological Data_2021320_0416.xlsx
@@ -37964,8 +37964,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC8664AFD598E6478EDF39439B3209D1" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c5496f946c423db52d300fa4c5cb525f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="864f0d85-d242-45ca-af3f-9d84e3e0da4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ce4e728c247c6006bd6e989f00a2db5" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="เอกสาร" ma:contentTypeID="0x010100AC8664AFD598E6478EDF39439B3209D1" ma:contentTypeVersion="4" ma:contentTypeDescription="สร้างเอกสารใหม่" ma:contentTypeScope="" ma:versionID="159676f2c3526dfc6de68bc1710751c6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="864f0d85-d242-45ca-af3f-9d84e3e0da4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c836612ec7390122809567b2b6523e1" ns2:_="">
     <xsd:import namespace="864f0d85-d242-45ca-af3f-9d84e3e0da4d"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -37976,6 +37976,7 @@
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -38001,6 +38002,11 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -38011,8 +38017,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="ชนิดเนื้อหา"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="ชื่อเรื่อง"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -38117,7 +38123,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C811172-FC9E-44B0-AEEA-00BC9D2E49E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CBB09DF-0607-4DAF-8AA2-C621FF15913D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
